--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>2/9-12/2023</t>
+  </si>
+  <si>
+    <t>VL(13-0-0)</t>
+  </si>
+  <si>
+    <t>3/3-6,11,12,16-20,25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +424,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -604,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,14 +766,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -771,9 +787,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,6 +795,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1662,10 +1678,10 @@
   </sheetPr>
   <dimension ref="A2:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,14 +1711,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1713,14 +1729,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1733,14 +1749,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1766,18 +1782,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1827,7 +1843,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1837,7 +1853,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3229,13 +3245,15 @@
         <v>44986</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
@@ -4058,17 +4076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4103,10 +4121,10 @@
   </sheetPr>
   <dimension ref="A2:M119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,14 +4154,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4154,14 +4172,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4174,14 +4192,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4207,18 +4225,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4268,7 +4286,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.231000000000009</v>
+        <v>9.2310000000000088</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5556,10 +5574,16 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="40"/>
+      <c r="D67" s="40">
+        <v>13</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
@@ -5569,7 +5593,9 @@
       <c r="H67" s="40"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="62" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>

--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>3/3-6,11,12,16-20,25,26/2023</t>
+  </si>
+  <si>
+    <t>5/5-8/2023</t>
   </si>
 </sst>
 </file>
@@ -763,20 +766,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -787,6 +790,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,9 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,34 +1706,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -1742,21 +1745,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1782,18 +1785,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4076,17 +4079,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4124,7 +4127,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,34 +4149,34 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -4185,21 +4188,21 @@
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4225,18 +4228,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4296,7 +4299,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.5</v>
+        <v>134.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5593,13 +5596,17 @@
       <c r="H67" s="40"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="62" t="s">
+      <c r="K67" s="51" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="40"/>
       <c r="E68" s="9"/>
@@ -5608,10 +5615,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="40"/>
+      <c r="H68" s="40">
+        <v>4</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
@@ -6492,17 +6503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -6592,12 +6603,12 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">

--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0E430-B98A-4B6E-B7D0-5DC5D7BC5C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -372,12 +373,15 @@
   </si>
   <si>
     <t>5/5-8/2023</t>
+  </si>
+  <si>
+    <t>5/19-22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -620,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,9 +764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,14 +773,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -789,9 +793,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1320,25 +1321,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1350,25 +1351,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1675,65 +1676,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M128"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C78"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -1741,27 +1742,27 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1769,7 +1770,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1782,24 +1783,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1846,7 +1847,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1856,12 +1857,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1883,7 +1884,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1909,7 +1910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1929,7 +1930,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1949,7 +1950,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1969,7 +1970,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1989,7 +1990,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -2029,7 +2030,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -2049,7 +2050,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -2069,7 +2070,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2089,7 +2090,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2109,7 +2110,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2129,7 +2130,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
@@ -2147,7 +2148,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2167,7 +2168,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2187,7 +2188,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2333,7 +2334,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2353,7 +2354,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2373,7 +2374,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2393,7 +2394,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>48</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2431,7 +2432,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2451,7 +2452,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2471,7 +2472,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2491,7 +2492,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2511,7 +2512,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2531,7 +2532,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2551,7 +2552,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2571,7 +2572,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2591,7 +2592,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2611,7 +2612,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2631,7 +2632,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2655,7 +2656,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>49</v>
       </c>
@@ -2673,7 +2674,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2713,7 +2714,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2733,7 +2734,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2753,7 +2754,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2793,7 +2794,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2839,7 +2840,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2859,7 +2860,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2879,7 +2880,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2923,7 +2924,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>50</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2961,7 +2962,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2981,7 +2982,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -3001,7 +3002,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -3021,7 +3022,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -3041,7 +3042,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -3061,7 +3062,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3081,7 +3082,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3121,7 +3122,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3141,7 +3142,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3161,7 +3162,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3185,7 +3186,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>57</v>
       </c>
@@ -3203,7 +3204,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3223,7 +3224,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3243,7 +3244,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3263,43 +3264,47 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3317,7 +3322,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3335,7 +3340,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3353,7 +3358,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3371,7 +3376,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45221</v>
       </c>
@@ -3389,7 +3394,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3405,7 +3410,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3421,7 +3426,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3437,7 +3442,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3453,7 +3458,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3469,7 +3474,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3485,7 +3490,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3501,7 +3506,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3517,7 +3522,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3533,7 +3538,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3549,7 +3554,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3565,7 +3570,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3581,7 +3586,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3597,7 +3602,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3613,7 +3618,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3629,7 +3634,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3645,7 +3650,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3661,7 +3666,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3677,7 +3682,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3693,7 +3698,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3709,7 +3714,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3725,7 +3730,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3741,7 +3746,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3757,7 +3762,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3773,7 +3778,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3789,7 +3794,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3805,7 +3810,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3821,7 +3826,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3837,7 +3842,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3853,7 +3858,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3869,7 +3874,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3885,7 +3890,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3901,7 +3906,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3917,7 +3922,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3933,7 +3938,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3949,7 +3954,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3965,7 +3970,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3981,7 +3986,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3997,7 +4002,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4013,7 +4018,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4029,7 +4034,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4045,7 +4050,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4061,7 +4066,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="42"/>
       <c r="B128" s="15"/>
       <c r="C128" s="43"/>
@@ -4079,23 +4084,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4118,65 +4123,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -4184,27 +4189,27 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4212,7 +4217,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4225,24 +4230,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4299,12 +4304,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.5</v>
+        <v>130.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -4332,8 +4337,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
       <c r="B11" s="20" t="s">
         <v>56</v>
       </c>
@@ -4354,8 +4359,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>61</v>
       </c>
@@ -4376,8 +4381,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>63</v>
       </c>
@@ -4396,8 +4401,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>43221</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -4420,8 +4425,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>66</v>
       </c>
@@ -4438,12 +4443,12 @@
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="50">
+      <c r="K15" s="49">
         <v>43241</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>67</v>
       </c>
@@ -4464,8 +4469,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
         <v>43252</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -4486,8 +4491,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>43282</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -4508,8 +4513,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>43313</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -4528,12 +4533,12 @@
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="50">
+      <c r="K19" s="49">
         <v>43321</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>71</v>
       </c>
@@ -4552,8 +4557,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
         <v>43344</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -4572,12 +4577,12 @@
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="50">
+      <c r="K21" s="49">
         <v>43372</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>72</v>
       </c>
@@ -4596,8 +4601,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <v>43374</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -4616,12 +4621,12 @@
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="50">
+      <c r="K23" s="49">
         <v>43384</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>73</v>
       </c>
@@ -4636,12 +4641,12 @@
       <c r="H24" s="40"/>
       <c r="I24" s="34"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="50">
+      <c r="K24" s="49">
         <v>43395</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>74</v>
       </c>
@@ -4660,8 +4665,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>43405</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -4680,12 +4685,12 @@
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="50">
+      <c r="K26" s="49">
         <v>43417</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
         <v>43435</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -4708,8 +4713,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
       </c>
@@ -4730,8 +4735,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>77</v>
       </c>
@@ -4752,8 +4757,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>67</v>
       </c>
@@ -4774,8 +4779,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>80</v>
       </c>
@@ -4794,7 +4799,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>46</v>
       </c>
@@ -4812,8 +4817,8 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
         <v>43497</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -4836,8 +4841,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>43556</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -4856,12 +4861,12 @@
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="50">
+      <c r="K34" s="49">
         <v>43557</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
         <v>43617</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -4880,12 +4885,12 @@
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="50">
+      <c r="K35" s="49">
         <v>43639</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
         <v>43647</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -4904,12 +4909,12 @@
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="50">
+      <c r="K36" s="49">
         <v>43650</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
         <v>43678</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -4932,8 +4937,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>51</v>
       </c>
@@ -4954,8 +4959,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
         <v>43709</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -4978,8 +4983,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>67</v>
       </c>
@@ -5000,8 +5005,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>67</v>
       </c>
@@ -5022,8 +5027,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
       </c>
@@ -5044,8 +5049,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
         <v>43739</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -5062,12 +5067,12 @@
       <c r="H43" s="40"/>
       <c r="I43" s="34"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="50">
+      <c r="K43" s="49">
         <v>43760</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
       </c>
@@ -5084,12 +5089,12 @@
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="50">
+      <c r="K44" s="49">
         <v>43742</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
       </c>
@@ -5110,8 +5115,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>43770</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -5134,7 +5139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>48</v>
       </c>
@@ -5152,8 +5157,8 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
         <v>43831</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -5176,8 +5181,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>93</v>
       </c>
@@ -5196,8 +5201,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="49">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
         <v>43862</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -5220,8 +5225,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="49">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
         <v>43891</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -5242,8 +5247,8 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="49">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
         <v>44013</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -5266,8 +5271,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="49">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
         <v>44044</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -5286,11 +5291,11 @@
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="50">
+      <c r="K53" s="49">
         <v>44071</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>49</v>
       </c>
@@ -5308,8 +5313,8 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="49">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
         <v>44075</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -5332,8 +5337,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="49">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
         <v>44136</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -5356,7 +5361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>50</v>
       </c>
@@ -5374,8 +5379,8 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="49">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
         <v>44562</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -5396,8 +5401,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="49">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
         <v>44682</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -5420,7 +5425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="47"/>
       <c r="B60" s="20" t="s">
         <v>104</v>
@@ -5440,7 +5445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44774</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -5486,7 +5491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44835</v>
       </c>
@@ -5510,7 +5515,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>57</v>
       </c>
@@ -5528,7 +5533,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44927</v>
       </c>
@@ -5552,7 +5557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44958</v>
       </c>
@@ -5576,7 +5581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44986</v>
       </c>
@@ -5596,11 +5601,11 @@
       <c r="H67" s="40"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="51" t="s">
+      <c r="K67" s="50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>45047</v>
       </c>
@@ -5624,9 +5629,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="40"/>
       <c r="E69" s="9"/>
@@ -5635,12 +5642,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="40"/>
+      <c r="H69" s="40">
+        <v>4</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5656,7 +5667,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5672,7 +5683,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5688,7 +5699,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5704,7 +5715,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5720,7 +5731,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5736,7 +5747,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -5752,7 +5763,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -5768,7 +5779,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -5784,7 +5795,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -5800,7 +5811,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -5816,7 +5827,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -5832,7 +5843,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5848,7 +5859,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5864,7 +5875,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5880,7 +5891,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5896,7 +5907,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5912,7 +5923,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5928,7 +5939,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5944,7 +5955,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5960,7 +5971,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5976,7 +5987,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5992,7 +6003,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6008,7 +6019,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6024,7 +6035,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6040,7 +6051,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6056,7 +6067,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6072,7 +6083,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6088,7 +6099,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6104,7 +6115,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6120,7 +6131,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6136,7 +6147,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6152,7 +6163,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6168,7 +6179,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6184,7 +6195,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6200,7 +6211,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6216,7 +6227,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6232,7 +6243,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6248,7 +6259,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6264,7 +6275,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6280,7 +6291,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6296,7 +6307,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6312,7 +6323,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6328,7 +6339,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6344,7 +6355,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6360,7 +6371,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6376,7 +6387,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6392,7 +6403,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6408,7 +6419,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6424,7 +6435,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="42"/>
       <c r="B119" s="15"/>
       <c r="C119" s="43"/>
@@ -6455,10 +6466,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6481,41 +6492,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>66.358000000000004</v>
       </c>
@@ -6572,7 +6583,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.75</v>
@@ -6587,10 +6598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -6603,14 +6614,14 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -6636,7 +6647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -6662,7 +6673,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -6688,7 +6699,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -6740,7 +6751,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -6766,7 +6777,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -6792,7 +6803,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -6818,7 +6829,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -6838,7 +6849,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -6858,7 +6869,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -6899,7 +6910,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -6920,7 +6931,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -6941,7 +6952,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -6962,7 +6973,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -6983,7 +6994,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -7004,7 +7015,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -7025,7 +7036,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -7067,7 +7078,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -7088,7 +7099,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -7109,7 +7120,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -7130,7 +7141,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -7151,7 +7162,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -7172,7 +7183,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -7193,7 +7204,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -7214,7 +7225,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -7235,7 +7246,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -7256,7 +7267,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -7277,7 +7288,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -7307,7 +7318,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -7316,7 +7327,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -7325,7 +7336,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -7334,7 +7345,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -7343,7 +7354,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -7352,7 +7363,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -7361,7 +7372,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -7370,7 +7381,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -7379,7 +7390,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -7388,7 +7399,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -7397,7 +7408,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -7406,7 +7417,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -7415,7 +7426,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -7424,7 +7435,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -7433,7 +7444,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -7442,7 +7453,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -7451,7 +7462,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -7460,7 +7471,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -7469,7 +7480,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -7478,7 +7489,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -7487,7 +7498,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -7496,7 +7507,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -7505,7 +7516,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -7514,7 +7525,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -7523,7 +7534,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -7532,7 +7543,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -7541,7 +7552,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -7550,7 +7561,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -7559,7 +7570,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0E430-B98A-4B6E-B7D0-5DC5D7BC5C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>PERIOD</t>
   </si>
@@ -376,12 +375,15 @@
   </si>
   <si>
     <t>5/19-22/2023</t>
+  </si>
+  <si>
+    <t>6/16-19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -773,17 +775,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -793,6 +792,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,25 +1323,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1351,25 +1353,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K119" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1676,34 +1678,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M128"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1715,16 +1717,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1733,16 +1735,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1753,16 +1755,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1770,7 +1772,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1783,24 +1785,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1862,7 +1864,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1884,7 +1886,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1930,7 +1932,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1950,7 +1952,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1970,7 +1972,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1990,7 +1992,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -2010,7 +2012,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -2030,7 +2032,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -2050,7 +2052,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -2070,7 +2072,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -2090,7 +2092,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2110,7 +2112,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2130,7 +2132,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
@@ -2148,7 +2150,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2168,7 +2170,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2188,7 +2190,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2234,7 +2236,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2254,7 +2256,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2274,7 +2276,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2294,7 +2296,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2314,7 +2316,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2334,7 +2336,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2354,7 +2356,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2374,7 +2376,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2394,7 +2396,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>48</v>
       </c>
@@ -2412,7 +2414,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2432,7 +2434,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2452,7 +2454,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2472,7 +2474,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2492,7 +2494,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2512,7 +2514,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2552,7 +2554,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2572,7 +2574,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2592,7 +2594,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2612,7 +2614,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>49</v>
       </c>
@@ -2674,7 +2676,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2694,7 +2696,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2714,7 +2716,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2734,7 +2736,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2754,7 +2756,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2774,7 +2776,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2794,7 +2796,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2840,7 +2842,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2860,7 +2862,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2880,7 +2882,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2900,7 +2902,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2924,7 +2926,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>50</v>
       </c>
@@ -2942,7 +2944,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2962,7 +2964,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2982,7 +2984,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -3002,7 +3004,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -3022,7 +3024,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -3042,7 +3044,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -3062,7 +3064,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -3082,7 +3084,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -3102,7 +3104,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3122,7 +3124,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3142,7 +3144,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3162,7 +3164,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3186,7 +3188,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>57</v>
       </c>
@@ -3204,7 +3206,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3224,7 +3226,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3244,7 +3246,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3264,7 +3266,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -3284,7 +3286,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3304,7 +3306,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3322,7 +3324,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3376,7 +3378,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45221</v>
       </c>
@@ -3394,7 +3396,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3410,7 +3412,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3426,7 +3428,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3442,7 +3444,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3458,7 +3460,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3474,7 +3476,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3490,7 +3492,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3506,7 +3508,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3522,7 +3524,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3538,7 +3540,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3554,7 +3556,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3570,7 +3572,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3586,7 +3588,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3602,7 +3604,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3618,7 +3620,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3634,7 +3636,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3650,7 +3652,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3666,7 +3668,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3682,7 +3684,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3698,7 +3700,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3714,7 +3716,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3730,7 +3732,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3746,7 +3748,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3762,7 +3764,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3778,7 +3780,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3794,7 +3796,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3810,7 +3812,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3826,7 +3828,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3842,7 +3844,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3858,7 +3860,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3874,7 +3876,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3890,7 +3892,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3906,7 +3908,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3922,7 +3924,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3938,7 +3940,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3954,7 +3956,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3970,7 +3972,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3986,7 +3988,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4002,7 +4004,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4018,7 +4020,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4034,7 +4036,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4050,7 +4052,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4066,7 +4068,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="15"/>
       <c r="C128" s="43"/>
@@ -4084,23 +4086,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4123,34 +4125,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A66" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4162,16 +4164,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4180,16 +4182,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4200,16 +4202,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4217,7 +4219,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4230,24 +4232,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4304,12 +4306,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.5</v>
+        <v>126.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -4337,7 +4339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="20" t="s">
         <v>56</v>
@@ -4359,7 +4361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>61</v>
@@ -4381,7 +4383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>63</v>
@@ -4401,7 +4403,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>43221</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>66</v>
@@ -4447,7 +4449,7 @@
         <v>43241</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>67</v>
@@ -4469,7 +4471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>43252</v>
       </c>
@@ -4491,7 +4493,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>43282</v>
       </c>
@@ -4513,7 +4515,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>43313</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>71</v>
@@ -4557,7 +4559,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>43344</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>43372</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>72</v>
@@ -4601,7 +4603,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>43374</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>43384</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>73</v>
@@ -4645,7 +4647,7 @@
         <v>43395</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>74</v>
@@ -4665,7 +4667,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>43405</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>43435</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -4735,7 +4737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>77</v>
@@ -4757,7 +4759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>67</v>
@@ -4779,7 +4781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>80</v>
@@ -4799,7 +4801,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>46</v>
       </c>
@@ -4817,7 +4819,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>43497</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>43556</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>43617</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>43639</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>43647</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>43678</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>51</v>
@@ -4959,7 +4961,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>43709</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>67</v>
@@ -5005,7 +5007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>67</v>
@@ -5027,7 +5029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -5049,7 +5051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>43739</v>
       </c>
@@ -5071,7 +5073,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -5093,7 +5095,7 @@
         <v>43742</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>67</v>
@@ -5115,7 +5117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>43770</v>
       </c>
@@ -5139,7 +5141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>48</v>
       </c>
@@ -5157,7 +5159,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>43831</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>93</v>
@@ -5201,7 +5203,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>43862</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>43891</v>
       </c>
@@ -5247,7 +5249,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>44013</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>44044</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>49</v>
       </c>
@@ -5313,7 +5315,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>44075</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>44136</v>
       </c>
@@ -5361,7 +5363,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>50</v>
       </c>
@@ -5379,7 +5381,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>44562</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>44682</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="20" t="s">
         <v>104</v>
@@ -5445,7 +5447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44774</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -5491,7 +5493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44835</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>57</v>
       </c>
@@ -5533,7 +5535,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44927</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44958</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44986</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>45047</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="20" t="s">
         <v>102</v>
@@ -5651,9 +5653,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="20"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="41">
+        <v>45097</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C70" s="13"/>
       <c r="D70" s="40"/>
       <c r="E70" s="9"/>
@@ -5662,12 +5668,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H70" s="40"/>
+      <c r="H70" s="40">
+        <v>4</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5683,7 +5693,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5699,7 +5709,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5715,7 +5725,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5731,7 +5741,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5747,7 +5757,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -5763,7 +5773,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -5779,7 +5789,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -5795,7 +5805,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -5811,7 +5821,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -5827,7 +5837,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -5843,7 +5853,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -5859,7 +5869,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -5875,7 +5885,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -5891,7 +5901,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -5907,7 +5917,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -5923,7 +5933,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5939,7 +5949,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5955,7 +5965,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5971,7 +5981,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5987,7 +5997,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6003,7 +6013,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6019,7 +6029,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6035,7 +6045,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6051,7 +6061,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6067,7 +6077,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6083,7 +6093,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6099,7 +6109,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6115,7 +6125,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6131,7 +6141,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6147,7 +6157,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6163,7 +6173,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6179,7 +6189,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6195,7 +6205,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6211,7 +6221,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6227,7 +6237,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6243,7 +6253,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6259,7 +6269,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6275,7 +6285,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6291,7 +6301,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="41"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6307,7 +6317,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6323,7 +6333,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6339,7 +6349,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6355,7 +6365,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6371,7 +6381,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6387,7 +6397,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6403,7 +6413,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6419,7 +6429,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6435,7 +6445,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="15"/>
       <c r="C119" s="43"/>
@@ -6466,10 +6476,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6492,28 +6502,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6526,7 +6536,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +6565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>66.358000000000004</v>
       </c>
@@ -6583,7 +6593,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0.75</v>
@@ -6598,10 +6608,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6631,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -6647,7 +6657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -6673,7 +6683,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -6699,7 +6709,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -6751,7 +6761,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -6777,7 +6787,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -6803,7 +6813,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -6829,7 +6839,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -6849,7 +6859,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -6869,7 +6879,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -6889,7 +6899,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -6910,7 +6920,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -6931,7 +6941,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -6973,7 +6983,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -6994,7 +7004,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -7015,7 +7025,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -7036,7 +7046,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -7057,7 +7067,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -7078,7 +7088,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -7099,7 +7109,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -7120,7 +7130,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -7141,7 +7151,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -7162,7 +7172,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -7183,7 +7193,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -7204,7 +7214,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -7225,7 +7235,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -7246,7 +7256,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -7267,7 +7277,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -7288,7 +7298,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -7309,7 +7319,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -7318,7 +7328,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -7327,7 +7337,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -7336,7 +7346,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -7345,7 +7355,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -7354,7 +7364,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -7363,7 +7373,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -7372,7 +7382,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -7381,7 +7391,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -7390,7 +7400,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -7399,7 +7409,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -7408,7 +7418,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -7417,7 +7427,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -7426,7 +7436,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -7435,7 +7445,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -7444,7 +7454,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -7453,7 +7463,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -7462,7 +7472,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -7471,7 +7481,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -7480,7 +7490,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -7489,7 +7499,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -7498,7 +7508,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -7507,7 +7517,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -7516,7 +7526,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -7525,7 +7535,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -7534,7 +7544,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -7543,7 +7553,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -7552,7 +7562,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -7561,7 +7571,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -7570,7 +7580,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>6/16-19/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>8/1-4, 7-11/2023</t>
+  </si>
+  <si>
+    <t>7/16-19/2023</t>
   </si>
 </sst>
 </file>
@@ -1684,10 +1693,10 @@
   </sheetPr>
   <dimension ref="A2:M128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1858,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1859,7 +1868,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3311,13 +3320,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
@@ -4131,10 +4142,10 @@
   </sheetPr>
   <dimension ref="A2:M119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4307,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.2310000000000088</v>
+        <v>0.23100000000000875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4306,7 +4317,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>126.5</v>
+        <v>122.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5678,10 +5689,16 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="41">
+        <v>45132</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="D71" s="40"/>
+      <c r="D71" s="40">
+        <v>9</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13" t="str">
@@ -5691,11 +5708,15 @@
       <c r="H71" s="40"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C72" s="13"/>
       <c r="D72" s="40"/>
       <c r="E72" s="9"/>
@@ -5704,10 +5725,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="40"/>
+      <c r="H72" s="40">
+        <v>4</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>

--- a/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
+++ b/NEW HR/ACUB, MA. MARILYN LANTING.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
   <si>
     <t>PERIOD</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>7/16-19/2023</t>
+  </si>
+  <si>
+    <t>8/14,15/2023</t>
+  </si>
+  <si>
+    <t>9/1-3/2023</t>
   </si>
 </sst>
 </file>
@@ -784,14 +790,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -801,9 +810,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1696,7 +1702,7 @@
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,14 +1732,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1744,14 +1750,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1764,14 +1770,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1797,18 +1803,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -1858,7 +1864,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1868,7 +1874,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3340,13 +3346,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
@@ -3358,13 +3366,15 @@
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
@@ -4097,17 +4107,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4145,7 +4155,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="B74" sqref="B74"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,14 +4185,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4193,14 +4203,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4213,14 +4223,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4246,18 +4256,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -4317,7 +4327,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>122.5</v>
+        <v>116.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5735,8 +5745,12 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="41">
+        <v>45139</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="40"/>
       <c r="E73" s="9"/>
@@ -5745,14 +5759,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H73" s="40"/>
+      <c r="H73" s="40">
+        <v>2</v>
+      </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C74" s="13"/>
       <c r="D74" s="40"/>
       <c r="E74" s="9"/>
@@ -5761,14 +5783,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="40"/>
+      <c r="H74" s="40">
+        <v>3</v>
+      </c>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C75" s="13"/>
       <c r="D75" s="40"/>
       <c r="E75" s="9"/>
@@ -5777,10 +5805,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H75" s="40"/>
+      <c r="H75" s="40">
+        <v>1</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>45178</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
